--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220525_110100.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220525_110100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="250">
   <si>
     <t>사이트</t>
   </si>
@@ -721,7 +721,7 @@
     <t>YAMYAM</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>MBC</t>
@@ -764,9 +764,6 @@
   </si>
   <si>
     <t>C9</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1176,7 @@
         <v>215</v>
       </c>
       <c r="H2" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1205,7 +1202,7 @@
         <v>215</v>
       </c>
       <c r="H3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1231,7 +1228,7 @@
         <v>216</v>
       </c>
       <c r="H4" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1257,7 +1254,7 @@
         <v>215</v>
       </c>
       <c r="H5" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1335,7 +1332,7 @@
         <v>219</v>
       </c>
       <c r="H8" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1361,7 +1358,7 @@
         <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1387,7 +1384,7 @@
         <v>221</v>
       </c>
       <c r="H10" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1439,7 +1436,7 @@
         <v>223</v>
       </c>
       <c r="H12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1465,7 +1462,7 @@
         <v>224</v>
       </c>
       <c r="H13" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1543,7 +1540,7 @@
         <v>226</v>
       </c>
       <c r="H16" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1595,7 +1592,7 @@
         <v>227</v>
       </c>
       <c r="H18" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1621,7 +1618,7 @@
         <v>223</v>
       </c>
       <c r="H19" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1647,7 +1644,7 @@
         <v>220</v>
       </c>
       <c r="H20" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1673,7 +1670,7 @@
         <v>220</v>
       </c>
       <c r="H21" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1699,7 +1696,7 @@
         <v>228</v>
       </c>
       <c r="H22" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1881,7 +1878,7 @@
         <v>229</v>
       </c>
       <c r="H29" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1907,7 +1904,7 @@
         <v>230</v>
       </c>
       <c r="H30" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1933,7 +1930,7 @@
         <v>231</v>
       </c>
       <c r="H31" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1959,7 +1956,7 @@
         <v>219</v>
       </c>
       <c r="H32" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2011,7 +2008,7 @@
         <v>233</v>
       </c>
       <c r="H34" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2037,7 +2034,7 @@
         <v>234</v>
       </c>
       <c r="H35" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2063,7 +2060,7 @@
         <v>235</v>
       </c>
       <c r="H36" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2089,7 +2086,7 @@
         <v>219</v>
       </c>
       <c r="H37" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2115,7 +2112,7 @@
         <v>216</v>
       </c>
       <c r="H38" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2141,7 +2138,7 @@
         <v>216</v>
       </c>
       <c r="H39" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2167,7 +2164,7 @@
         <v>219</v>
       </c>
       <c r="H40" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2193,7 +2190,7 @@
         <v>236</v>
       </c>
       <c r="H41" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2245,7 +2242,7 @@
         <v>237</v>
       </c>
       <c r="H43" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2297,7 +2294,7 @@
         <v>239</v>
       </c>
       <c r="H45" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2349,7 +2346,7 @@
         <v>227</v>
       </c>
       <c r="H47" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2375,7 +2372,7 @@
         <v>226</v>
       </c>
       <c r="H48" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2453,7 +2450,7 @@
         <v>219</v>
       </c>
       <c r="H51" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2479,7 +2476,7 @@
         <v>240</v>
       </c>
       <c r="H52" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2505,7 +2502,7 @@
         <v>223</v>
       </c>
       <c r="H53" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2531,7 +2528,7 @@
         <v>223</v>
       </c>
       <c r="H54" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2557,7 +2554,7 @@
         <v>233</v>
       </c>
       <c r="H55" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2583,7 +2580,7 @@
         <v>241</v>
       </c>
       <c r="H56" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2609,7 +2606,7 @@
         <v>242</v>
       </c>
       <c r="H57" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2635,7 +2632,7 @@
         <v>226</v>
       </c>
       <c r="H58" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2661,7 +2658,7 @@
         <v>243</v>
       </c>
       <c r="H59" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2713,7 +2710,7 @@
         <v>244</v>
       </c>
       <c r="H61" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2765,7 +2762,7 @@
         <v>235</v>
       </c>
       <c r="H63" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2791,7 +2788,7 @@
         <v>223</v>
       </c>
       <c r="H64" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2817,7 +2814,7 @@
         <v>223</v>
       </c>
       <c r="H65" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2843,7 +2840,7 @@
         <v>235</v>
       </c>
       <c r="H66" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2869,7 +2866,7 @@
         <v>236</v>
       </c>
       <c r="H67" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2921,7 +2918,7 @@
         <v>245</v>
       </c>
       <c r="H69" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2947,7 +2944,7 @@
         <v>219</v>
       </c>
       <c r="H70" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2999,7 +2996,7 @@
         <v>216</v>
       </c>
       <c r="H72" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3025,7 +3022,7 @@
         <v>246</v>
       </c>
       <c r="H73" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3051,7 +3048,7 @@
         <v>229</v>
       </c>
       <c r="H74" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3077,7 +3074,7 @@
         <v>219</v>
       </c>
       <c r="H75" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3181,7 +3178,7 @@
         <v>248</v>
       </c>
       <c r="H79" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3233,7 +3230,7 @@
         <v>239</v>
       </c>
       <c r="H81" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3255,6 +3252,12 @@
       <c r="F82" t="s">
         <v>203</v>
       </c>
+      <c r="G82" t="s">
+        <v>248</v>
+      </c>
+      <c r="H82" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
@@ -3279,7 +3282,7 @@
         <v>241</v>
       </c>
       <c r="H83" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3305,7 +3308,7 @@
         <v>249</v>
       </c>
       <c r="H84" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3331,7 +3334,7 @@
         <v>249</v>
       </c>
       <c r="H85" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3383,7 +3386,7 @@
         <v>223</v>
       </c>
       <c r="H87" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3409,7 +3412,7 @@
         <v>219</v>
       </c>
       <c r="H88" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3487,7 +3490,7 @@
         <v>239</v>
       </c>
       <c r="H91" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3513,7 +3516,7 @@
         <v>235</v>
       </c>
       <c r="H92" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3539,7 +3542,7 @@
         <v>220</v>
       </c>
       <c r="H93" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3565,7 +3568,7 @@
         <v>235</v>
       </c>
       <c r="H94" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3617,7 +3620,7 @@
         <v>241</v>
       </c>
       <c r="H96" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3643,7 +3646,7 @@
         <v>223</v>
       </c>
       <c r="H97" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3669,7 +3672,7 @@
         <v>243</v>
       </c>
       <c r="H98" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3695,7 +3698,7 @@
         <v>226</v>
       </c>
       <c r="H99" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3721,7 +3724,7 @@
         <v>235</v>
       </c>
       <c r="H100" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3747,7 +3750,7 @@
         <v>241</v>
       </c>
       <c r="H101" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
